--- a/regions/4/transporti da kavshirgabmuloba/transporti da dasawyobeba.xlsx
+++ b/regions/4/transporti da kavshirgabmuloba/transporti da dasawyobeba.xlsx
@@ -61,11 +61,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -586,22 +586,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P29"/>
+  <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="O4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" sqref="A1:P1"/>
+      <selection pane="bottomRight" activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="71" customWidth="1"/>
     <col min="2" max="15" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="15" customFormat="1">
+    <row r="1" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>13</v>
       </c>
@@ -621,7 +621,7 @@
       <c r="O1" s="36"/>
       <c r="P1" s="36"/>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -636,7 +636,7 @@
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
     </row>
-    <row r="3" spans="1:16" s="8" customFormat="1">
+    <row r="3" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
       <c r="B3" s="10">
         <v>2006</v>
@@ -683,8 +683,14 @@
       <c r="P3" s="14">
         <v>2020</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" s="8" customFormat="1">
+      <c r="Q3" s="14">
+        <v>2021</v>
+      </c>
+      <c r="R3" s="14">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>0</v>
       </c>
@@ -733,8 +739,14 @@
       <c r="P4" s="20">
         <v>553.20000000000005</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" s="8" customFormat="1">
+      <c r="Q4" s="20">
+        <v>722.8</v>
+      </c>
+      <c r="R4" s="20">
+        <v>1061.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>1</v>
       </c>
@@ -783,8 +795,14 @@
       <c r="P5" s="20">
         <v>606.4</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" s="8" customFormat="1">
+      <c r="Q5" s="20">
+        <v>726.7</v>
+      </c>
+      <c r="R5" s="20">
+        <v>1042.4000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
         <v>7</v>
       </c>
@@ -833,8 +851,14 @@
       <c r="P6" s="25">
         <v>7569</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" s="8" customFormat="1">
+      <c r="Q6" s="25">
+        <v>7841</v>
+      </c>
+      <c r="R6" s="25">
+        <v>8003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
         <v>8</v>
       </c>
@@ -883,8 +907,14 @@
       <c r="P7" s="25">
         <v>5878</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" s="35" customFormat="1" ht="15.75">
+      <c r="Q7" s="25">
+        <v>6549</v>
+      </c>
+      <c r="R7" s="25">
+        <v>6899</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A8" s="32" t="s">
         <v>12</v>
       </c>
@@ -933,8 +963,14 @@
       <c r="P8" s="20">
         <v>1166</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" s="8" customFormat="1">
+      <c r="Q8" s="20">
+        <v>1319.7</v>
+      </c>
+      <c r="R8" s="20">
+        <v>1637.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
         <v>2</v>
       </c>
@@ -983,8 +1019,14 @@
       <c r="P9" s="20">
         <v>348.8</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" s="8" customFormat="1">
+      <c r="Q9" s="20">
+        <v>396.9</v>
+      </c>
+      <c r="R9" s="20">
+        <v>622.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>3</v>
       </c>
@@ -1033,8 +1075,14 @@
       <c r="P10" s="20">
         <v>85.1</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" s="8" customFormat="1">
+      <c r="Q10" s="20">
+        <v>108.3</v>
+      </c>
+      <c r="R10" s="20">
+        <v>140.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>4</v>
       </c>
@@ -1083,8 +1131,14 @@
       <c r="P11" s="20">
         <v>257.60000000000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" s="8" customFormat="1">
+      <c r="Q11" s="20">
+        <v>329.8</v>
+      </c>
+      <c r="R11" s="20">
+        <v>420.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
         <v>9</v>
       </c>
@@ -1133,8 +1187,14 @@
       <c r="P12" s="20">
         <v>99.6</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" s="8" customFormat="1">
+      <c r="Q12" s="20">
+        <v>54</v>
+      </c>
+      <c r="R12" s="20">
+        <v>96.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
         <v>5</v>
       </c>
@@ -1183,8 +1243,14 @@
       <c r="P13" s="20">
         <v>348.2</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" s="8" customFormat="1" ht="15.75" customHeight="1">
+      <c r="Q13" s="20">
+        <v>390.8</v>
+      </c>
+      <c r="R13" s="20">
+        <v>634.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
         <v>10</v>
       </c>
@@ -1233,8 +1299,14 @@
       <c r="P14" s="20">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" ht="15.75">
+      <c r="Q14" s="20">
+        <v>14.8</v>
+      </c>
+      <c r="R14" s="20">
+        <v>52.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A15" s="19"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -1248,50 +1320,50 @@
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
     </row>
-    <row r="16" spans="1:16" s="13" customFormat="1">
+    <row r="16" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="7" customFormat="1">
+    <row r="17" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="16"/>
       <c r="B17" s="6"/>
     </row>
-    <row r="18" spans="1:2" ht="15.75">
+    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A18" s="19"/>
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
     </row>
   </sheetData>

--- a/regions/4/transporti da kavshirgabmuloba/transporti da dasawyobeba.xlsx
+++ b/regions/4/transporti da kavshirgabmuloba/transporti da dasawyobeba.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE086B8-0E3D-49DA-8F9B-867786EC94F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="75" windowWidth="20550" windowHeight="8010"/>
+    <workbookView xWindow="1440" yWindow="3465" windowWidth="14265" windowHeight="9855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NACE 2" sheetId="2" r:id="rId1"/>
@@ -61,11 +62,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -207,9 +208,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -218,20 +216,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -255,7 +249,7 @@
     <xf numFmtId="1" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -276,9 +270,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -375,6 +366,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -410,6 +418,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -585,786 +610,796 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="O4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="P4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="R3" sqref="R3"/>
+      <selection pane="bottomRight" activeCell="S4" sqref="S4:S14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="71" customWidth="1"/>
     <col min="2" max="15" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:19" s="12" customFormat="1">
+      <c r="A1" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-    </row>
-    <row r="3" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="10">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+    </row>
+    <row r="3" spans="1:19" s="7" customFormat="1">
+      <c r="A3" s="14"/>
+      <c r="B3" s="8">
         <v>2006</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="8">
         <v>2007</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="8">
         <v>2008</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="8">
         <v>2009</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="8">
         <v>2010</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="9">
         <v>2011</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="9">
         <v>2012</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="9">
         <v>2013</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="10">
         <v>2014</v>
       </c>
-      <c r="K3" s="12">
+      <c r="K3" s="10">
         <v>2015</v>
       </c>
-      <c r="L3" s="14">
+      <c r="L3" s="8">
         <v>2016</v>
       </c>
-      <c r="M3" s="14">
+      <c r="M3" s="8">
         <v>2017</v>
       </c>
-      <c r="N3" s="14">
+      <c r="N3" s="8">
         <v>2018</v>
       </c>
-      <c r="O3" s="14">
+      <c r="O3" s="8">
         <v>2019</v>
       </c>
-      <c r="P3" s="14">
+      <c r="P3" s="8">
         <v>2020</v>
       </c>
-      <c r="Q3" s="14">
+      <c r="Q3" s="8">
         <v>2021</v>
       </c>
-      <c r="R3" s="14">
+      <c r="R3" s="8">
         <v>2022</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
+      <c r="S3" s="8">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" s="7" customFormat="1">
+      <c r="A4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="17">
         <v>139.25184999999999</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="17">
         <v>139.60379</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="17">
         <v>106.8342</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="17">
         <v>115.40492999999999</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="17">
         <v>123.67910999999999</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="17">
         <v>169.75156999999999</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="18">
         <v>231.8</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="18">
         <v>249.9</v>
       </c>
-      <c r="J4" s="22">
+      <c r="J4" s="19">
         <v>267.56529999999998</v>
       </c>
-      <c r="K4" s="22">
+      <c r="K4" s="19">
         <v>348.95759999999996</v>
       </c>
-      <c r="L4" s="23">
+      <c r="L4" s="20">
         <v>407.7</v>
       </c>
-      <c r="M4" s="20">
+      <c r="M4" s="17">
         <v>356.92430000000002</v>
       </c>
-      <c r="N4" s="20">
+      <c r="N4" s="17">
         <v>437.08674999999999</v>
       </c>
-      <c r="O4" s="20">
+      <c r="O4" s="17">
         <v>516.18389999999999</v>
       </c>
-      <c r="P4" s="20">
+      <c r="P4" s="17">
         <v>553.20000000000005</v>
       </c>
-      <c r="Q4" s="20">
+      <c r="Q4" s="17">
         <v>722.8</v>
       </c>
-      <c r="R4" s="20">
+      <c r="R4" s="17">
         <v>1061.2</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
+      <c r="S4" s="17">
+        <v>928.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" s="7" customFormat="1">
+      <c r="A5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="17">
         <v>139.16034999999999</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="17">
         <v>139.52921000000001</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="17">
         <v>107.95774</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="17">
         <v>108.09126999999999</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="17">
         <v>122.55312000000001</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="17">
         <v>165.43288000000001</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H5" s="21">
         <v>237.5</v>
       </c>
-      <c r="I5" s="24">
+      <c r="I5" s="21">
         <v>256.5</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J5" s="20">
         <v>269.7</v>
       </c>
-      <c r="K5" s="23">
+      <c r="K5" s="20">
         <v>357.3</v>
       </c>
-      <c r="L5" s="23">
+      <c r="L5" s="20">
         <v>418.8</v>
       </c>
-      <c r="M5" s="20">
+      <c r="M5" s="17">
         <v>347.54836999999998</v>
       </c>
-      <c r="N5" s="20">
+      <c r="N5" s="17">
         <v>492.83467000000002</v>
       </c>
-      <c r="O5" s="20">
+      <c r="O5" s="17">
         <v>523.83556999999996</v>
       </c>
-      <c r="P5" s="20">
+      <c r="P5" s="17">
         <v>606.4</v>
       </c>
-      <c r="Q5" s="20">
+      <c r="Q5" s="17">
         <v>726.7</v>
       </c>
-      <c r="R5" s="20">
+      <c r="R5" s="17">
         <v>1042.4000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
+      <c r="S5" s="17">
+        <v>926.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" s="7" customFormat="1">
+      <c r="A6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="22">
         <v>4194.3333300000004</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="22">
         <v>3223.8880800000002</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="22">
         <v>3056.9363600000001</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="22">
         <v>3427.9207799999999</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="22">
         <v>3040.80953</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="22">
         <v>3108.8899099999999</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="18">
         <v>3762</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="18">
         <v>4247</v>
       </c>
-      <c r="J6" s="23">
+      <c r="J6" s="20">
         <v>4115</v>
       </c>
-      <c r="K6" s="23">
+      <c r="K6" s="20">
         <v>4216</v>
       </c>
-      <c r="L6" s="23">
+      <c r="L6" s="20">
         <v>5853</v>
       </c>
-      <c r="M6" s="25">
+      <c r="M6" s="22">
         <v>7669.9095299999999</v>
       </c>
-      <c r="N6" s="25">
+      <c r="N6" s="22">
         <v>7826.0937800000002</v>
       </c>
-      <c r="O6" s="20">
+      <c r="O6" s="17">
         <v>8163.2073799999998</v>
       </c>
-      <c r="P6" s="25">
+      <c r="P6" s="22">
         <v>7569</v>
       </c>
-      <c r="Q6" s="25">
+      <c r="Q6" s="22">
         <v>7841</v>
       </c>
-      <c r="R6" s="25">
+      <c r="R6" s="22">
         <v>8003</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
+      <c r="S6" s="22">
+        <v>8229</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" s="7" customFormat="1">
+      <c r="A7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="22">
         <v>4056.3333299999999</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="22">
         <v>3130.2298599999999</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="22">
         <v>2977.0393899999999</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="22">
         <v>3367.4207799999999</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="22">
         <v>3015.5</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G7" s="22">
         <v>3056.1455099999998</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="18">
         <v>3652</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="18">
         <v>4012</v>
       </c>
-      <c r="J7" s="23">
+      <c r="J7" s="20">
         <v>3938</v>
       </c>
-      <c r="K7" s="23">
+      <c r="K7" s="20">
         <v>3969</v>
       </c>
-      <c r="L7" s="23">
+      <c r="L7" s="20">
         <v>5360</v>
       </c>
-      <c r="M7" s="25">
+      <c r="M7" s="22">
         <v>6816.9645399999999</v>
       </c>
-      <c r="N7" s="25">
+      <c r="N7" s="22">
         <v>6876.6040300000004</v>
       </c>
-      <c r="O7" s="20">
+      <c r="O7" s="17">
         <v>7524.8029399999996</v>
       </c>
-      <c r="P7" s="25">
+      <c r="P7" s="22">
         <v>5878</v>
       </c>
-      <c r="Q7" s="25">
+      <c r="Q7" s="22">
         <v>6549</v>
       </c>
-      <c r="R7" s="25">
+      <c r="R7" s="22">
         <v>6899</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="32" t="s">
+      <c r="S7" s="22">
+        <v>7501</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15.75">
+      <c r="A8" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="17">
         <v>405.09498200000002</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="17">
         <v>495.13861200000002</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="17">
         <v>784.79432599999996</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="17">
         <v>788.48312699999997</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="17">
         <v>893.76856399999997</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="17">
         <v>1021.597923</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="18">
         <v>980.1</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="18">
         <v>993.3</v>
       </c>
-      <c r="J8" s="33">
+      <c r="J8" s="19">
         <v>1032.8</v>
       </c>
-      <c r="K8" s="33">
+      <c r="K8" s="19">
         <v>1238.9000000000001</v>
       </c>
-      <c r="L8" s="34">
+      <c r="L8" s="20">
         <v>1163.5999999999999</v>
       </c>
-      <c r="M8" s="20">
+      <c r="M8" s="17">
         <v>1176.3242680000001</v>
       </c>
-      <c r="N8" s="20">
+      <c r="N8" s="17">
         <v>1134.171184</v>
       </c>
-      <c r="O8" s="20">
+      <c r="O8" s="17">
         <v>1111.3435950000001</v>
       </c>
-      <c r="P8" s="20">
+      <c r="P8" s="17">
         <v>1166</v>
       </c>
-      <c r="Q8" s="20">
+      <c r="Q8" s="17">
         <v>1319.7</v>
       </c>
-      <c r="R8" s="20">
+      <c r="R8" s="17">
         <v>1637.2</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="s">
+      <c r="S8" s="17">
+        <v>1594.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="7" customFormat="1">
+      <c r="A9" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="17">
         <v>38.361989999999999</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="17">
         <v>59.807209999999998</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="17">
         <v>38.93159</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="17">
         <v>51.884300000000003</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="17">
         <v>52.508299999999998</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9" s="17">
         <v>77.447119999999998</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="18">
         <v>107.4</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="18">
         <v>138.19999999999999</v>
       </c>
-      <c r="J9" s="22">
+      <c r="J9" s="19">
         <v>150.5985</v>
       </c>
-      <c r="K9" s="22">
+      <c r="K9" s="19">
         <v>176.84960000000001</v>
       </c>
-      <c r="L9" s="23">
+      <c r="L9" s="20">
         <v>248.1</v>
       </c>
-      <c r="M9" s="20">
+      <c r="M9" s="17">
         <v>167.91619</v>
       </c>
-      <c r="N9" s="20">
+      <c r="N9" s="17">
         <v>275.84960999999998</v>
       </c>
-      <c r="O9" s="20">
+      <c r="O9" s="17">
         <v>279.50184999999999</v>
       </c>
-      <c r="P9" s="20">
+      <c r="P9" s="17">
         <v>348.8</v>
       </c>
-      <c r="Q9" s="20">
+      <c r="Q9" s="17">
         <v>396.9</v>
       </c>
-      <c r="R9" s="20">
+      <c r="R9" s="17">
         <v>622.1</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
+      <c r="S9" s="17">
+        <v>440.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" s="7" customFormat="1">
+      <c r="A10" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="17">
         <v>23.663720000000001</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="17">
         <v>22.640339999999998</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="17">
         <v>29.461410000000001</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="17">
         <v>34.515729999999998</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="17">
         <v>33.282879999999999</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G10" s="17">
         <v>39.177819999999997</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="18">
         <v>45.2</v>
       </c>
-      <c r="I10" s="21">
+      <c r="I10" s="18">
         <v>50.1</v>
       </c>
-      <c r="J10" s="22">
+      <c r="J10" s="19">
         <v>51.163499999999999</v>
       </c>
-      <c r="K10" s="22">
+      <c r="K10" s="19">
         <v>60.956000000000003</v>
       </c>
-      <c r="L10" s="23">
+      <c r="L10" s="20">
         <v>77.7</v>
       </c>
-      <c r="M10" s="20">
+      <c r="M10" s="17">
         <v>100.09654</v>
       </c>
-      <c r="N10" s="20">
+      <c r="N10" s="17">
         <v>96.113489999999999</v>
       </c>
-      <c r="O10" s="20">
+      <c r="O10" s="17">
         <v>103.47918</v>
       </c>
-      <c r="P10" s="20">
+      <c r="P10" s="17">
         <v>85.1</v>
       </c>
-      <c r="Q10" s="20">
+      <c r="Q10" s="17">
         <v>108.3</v>
       </c>
-      <c r="R10" s="20">
+      <c r="R10" s="17">
         <v>140.9</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="17" t="s">
+      <c r="S10" s="17">
+        <v>149.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" s="7" customFormat="1">
+      <c r="A11" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="17">
         <v>100.79833000000001</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="17">
         <v>79.721959999999996</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="17">
         <v>69.026169999999993</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="17">
         <v>56.206969999999998</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="17">
         <v>70.044799999999995</v>
       </c>
-      <c r="G11" s="20">
+      <c r="G11" s="17">
         <v>87.985820000000004</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="18">
         <v>130.1</v>
       </c>
-      <c r="I11" s="21">
+      <c r="I11" s="18">
         <v>118.3</v>
       </c>
-      <c r="J11" s="22">
+      <c r="J11" s="19">
         <v>119.0857</v>
       </c>
-      <c r="K11" s="22">
+      <c r="K11" s="19">
         <v>180.4676</v>
       </c>
-      <c r="L11" s="22">
+      <c r="L11" s="19">
         <v>170.7</v>
       </c>
-      <c r="M11" s="20">
+      <c r="M11" s="17">
         <v>179.63226</v>
       </c>
-      <c r="N11" s="20">
+      <c r="N11" s="17">
         <v>216.98517000000001</v>
       </c>
-      <c r="O11" s="20">
+      <c r="O11" s="17">
         <v>244.33369999999999</v>
       </c>
-      <c r="P11" s="20">
+      <c r="P11" s="17">
         <v>257.60000000000002</v>
       </c>
-      <c r="Q11" s="20">
+      <c r="Q11" s="17">
         <v>329.8</v>
       </c>
-      <c r="R11" s="20">
+      <c r="R11" s="17">
         <v>420.3</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
+      <c r="S11" s="17">
+        <v>486.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" s="7" customFormat="1">
+      <c r="A12" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="17">
         <v>144.31845000000001</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="17">
         <v>22.17718</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="17">
         <v>17.575990000000001</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="17">
         <v>16.783760000000001</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="17">
         <v>21.19773</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G12" s="17">
         <v>25.76031</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H12" s="18">
         <v>41.6</v>
       </c>
-      <c r="I12" s="21">
+      <c r="I12" s="18">
         <v>71.599999999999994</v>
       </c>
-      <c r="J12" s="22">
+      <c r="J12" s="19">
         <v>35.267499999999998</v>
       </c>
-      <c r="K12" s="22">
+      <c r="K12" s="19">
         <v>25.157799999999998</v>
       </c>
-      <c r="L12" s="23">
+      <c r="L12" s="20">
         <v>45.1</v>
       </c>
-      <c r="M12" s="20">
+      <c r="M12" s="17">
         <v>43.398249999999997</v>
       </c>
-      <c r="N12" s="20">
+      <c r="N12" s="17">
         <v>31.327089999999998</v>
       </c>
-      <c r="O12" s="20">
+      <c r="O12" s="17">
         <v>29.092459999999999</v>
       </c>
-      <c r="P12" s="20">
+      <c r="P12" s="17">
         <v>99.6</v>
       </c>
-      <c r="Q12" s="20">
+      <c r="Q12" s="17">
         <v>54</v>
       </c>
-      <c r="R12" s="20">
+      <c r="R12" s="17">
         <v>96.3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="17" t="s">
+      <c r="S12" s="17">
+        <v>65.900000000000006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" s="7" customFormat="1">
+      <c r="A13" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="17">
         <v>57.448450000000001</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="17">
         <v>39.591830000000002</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="17">
         <v>45.979050000000001</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="17">
         <v>52.81241</v>
       </c>
-      <c r="G13" s="20">
+      <c r="G13" s="17">
         <v>78.762129999999999</v>
       </c>
-      <c r="H13" s="21">
+      <c r="H13" s="18">
         <v>104.9</v>
       </c>
-      <c r="I13" s="21">
+      <c r="I13" s="18">
         <v>128.80000000000001</v>
       </c>
-      <c r="J13" s="24">
+      <c r="J13" s="21">
         <v>153.03279999999998</v>
       </c>
-      <c r="K13" s="24">
+      <c r="K13" s="21">
         <v>171.19879999999998</v>
       </c>
-      <c r="L13" s="21">
+      <c r="L13" s="18">
         <v>236.9</v>
       </c>
-      <c r="M13" s="20">
+      <c r="M13" s="17">
         <v>172.20032</v>
       </c>
-      <c r="N13" s="20">
+      <c r="N13" s="17">
         <v>277.02226999999999</v>
       </c>
-      <c r="O13" s="20">
+      <c r="O13" s="17">
         <v>293.99964999999997</v>
       </c>
-      <c r="P13" s="20">
+      <c r="P13" s="17">
         <v>348.2</v>
       </c>
-      <c r="Q13" s="20">
+      <c r="Q13" s="17">
         <v>390.8</v>
       </c>
-      <c r="R13" s="20">
+      <c r="R13" s="17">
         <v>634.4</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="18" t="s">
+      <c r="S13" s="17">
+        <v>467.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A14" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14" s="24">
         <v>1.238E-2</v>
       </c>
-      <c r="D14" s="27">
+      <c r="D14" s="24">
         <v>0.40571000000000002</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="24">
         <v>7.3304499999999999</v>
       </c>
-      <c r="F14" s="27">
+      <c r="F14" s="24">
         <v>1.35968</v>
       </c>
-      <c r="G14" s="27">
+      <c r="G14" s="24">
         <v>4.24899</v>
       </c>
-      <c r="H14" s="28">
+      <c r="H14" s="25">
         <v>1.4</v>
       </c>
-      <c r="I14" s="28">
+      <c r="I14" s="25">
         <v>1.7</v>
       </c>
-      <c r="J14" s="29">
+      <c r="J14" s="26">
         <v>6.99</v>
       </c>
-      <c r="K14" s="30">
+      <c r="K14" s="27">
         <v>0.56689999999999996</v>
       </c>
-      <c r="L14" s="31">
+      <c r="L14" s="28">
         <v>3.1</v>
       </c>
-      <c r="M14" s="27">
+      <c r="M14" s="24">
         <v>15.29583</v>
       </c>
-      <c r="N14" s="27">
+      <c r="N14" s="24">
         <v>5.9597899999999999</v>
       </c>
-      <c r="O14" s="27">
+      <c r="O14" s="24">
         <v>14.558249999999999</v>
       </c>
-      <c r="P14" s="20">
+      <c r="P14" s="17">
         <v>5.9</v>
       </c>
-      <c r="Q14" s="20">
+      <c r="Q14" s="17">
         <v>14.8</v>
       </c>
-      <c r="R14" s="20">
+      <c r="R14" s="17">
         <v>52.6</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="19"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-    </row>
-    <row r="16" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
+      <c r="S14" s="17">
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="15.75">
+      <c r="A15" s="16"/>
+    </row>
+    <row r="16" spans="1:19" s="11" customFormat="1">
+      <c r="A16" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="16"/>
-      <c r="B17" s="6"/>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="19"/>
+    <row r="17" spans="1:2" s="6" customFormat="1">
+      <c r="A17" s="13"/>
+      <c r="B17" s="5"/>
+    </row>
+    <row r="18" spans="1:2" ht="15.75">
+      <c r="A18" s="16"/>
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="4"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:2">
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="5"/>
+    <row r="29" spans="1:2">
+      <c r="B29" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
